--- a/src/main/java/com/vapsTechnosoft/IVRM/data/BGHS_AdmissionData.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/BGHS_AdmissionData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="58" activeTab="60"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="21" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="BGHS_AcademicYearData" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="178">
   <si>
     <t>AcademicYr</t>
   </si>
@@ -106,12 +106,6 @@
     <t>2030</t>
   </si>
   <si>
-    <t>01-04-2030</t>
-  </si>
-  <si>
-    <t>31-03-2031</t>
-  </si>
-  <si>
     <t>15-11-2029</t>
   </si>
   <si>
@@ -454,9 +448,6 @@
     <t>Susdiny History</t>
   </si>
   <si>
-    <t>History</t>
-  </si>
-  <si>
     <t>Subject Code</t>
   </si>
   <si>
@@ -574,9 +565,6 @@
     <t>EngWA</t>
   </si>
   <si>
-    <t>2017-2018/00002/2017-2018</t>
-  </si>
-  <si>
     <t>2017-002</t>
   </si>
   <si>
@@ -586,9 +574,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>3213213213</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
@@ -599,18 +584,49 @@
   </si>
   <si>
     <t>Academic Year Order</t>
+  </si>
+  <si>
+    <t>01-05-2030</t>
+  </si>
+  <si>
+    <t>30-04-2031</t>
+  </si>
+  <si>
+    <t>2017-004</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>2018-058</t>
+  </si>
+  <si>
+    <t>CC-541/161</t>
+  </si>
+  <si>
+    <t>Punjabi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,6 +790,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -795,15 +818,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -812,38 +829,47 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,16 +880,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -872,10 +898,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -884,19 +913,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1204,7 +1233,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1253,28 +1282,28 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1282,28 +1311,28 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1356,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -1335,10 +1364,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1367,25 +1396,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>8</v>
@@ -1393,28 +1422,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1467,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -1446,10 +1475,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1473,10 +1502,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>67</v>
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -1484,13 +1513,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1515,10 +1544,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -1526,13 +1555,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1556,10 +1585,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -1567,13 +1596,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1598,7 +1627,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -1606,10 +1635,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1633,10 +1662,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -1644,13 +1673,13 @@
     </row>
     <row r="2" spans="1:3" ht="45">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1703,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -1682,10 +1711,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1709,10 +1738,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -1720,13 +1749,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1779,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -1758,10 +1787,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1813,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -1792,10 +1821,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1819,10 +1848,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -1830,24 +1859,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1870,7 +1899,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>8</v>
@@ -1878,10 +1907,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1895,7 +1924,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1906,10 +1935,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -1917,13 +1946,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1936,8 +1965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1947,7 +1976,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -1955,10 +1984,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1971,7 +2000,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1983,13 +2012,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>8</v>
@@ -1997,40 +2026,40 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2038,10 +2067,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2065,10 +2094,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -2076,13 +2105,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2106,7 +2135,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2114,10 +2143,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2141,10 +2170,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -2152,13 +2181,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2185,16 +2214,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -2202,19 +2231,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2237,7 +2266,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2245,33 +2274,33 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2279,18 +2308,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2304,7 +2333,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2316,13 +2345,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>8</v>
@@ -2330,16 +2359,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2363,7 +2392,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2371,10 +2400,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2387,7 +2416,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2400,16 +2429,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>8</v>
@@ -2417,19 +2446,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2455,16 +2484,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>8</v>
@@ -2472,39 +2501,39 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2512,10 +2541,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2539,10 +2568,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -2550,13 +2579,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2570,7 +2599,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2583,42 +2612,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="C2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +2661,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2640,47 +2669,47 @@
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="C2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2705,13 +2734,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
@@ -2719,16 +2748,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2741,7 +2770,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B10" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2751,7 +2780,152 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2759,154 +2933,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2933,16 +2963,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>8</v>
@@ -2950,19 +2980,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2989,16 +3019,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>8</v>
@@ -3006,19 +3036,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>164</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3041,7 +3071,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -3049,10 +3079,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3077,10 +3107,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -3088,13 +3118,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3120,13 +3150,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>8</v>
@@ -3134,16 +3164,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3169,13 +3199,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
@@ -3183,16 +3213,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +3235,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3216,18 +3246,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32" t="s">
-        <v>170</v>
+      <c r="A2" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3254,16 +3284,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>8</v>
@@ -3271,19 +3301,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3312,25 +3342,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>8</v>
@@ -3338,28 +3368,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3389,22 +3419,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>152</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>155</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>8</v>
@@ -3412,25 +3442,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3454,7 +3484,129 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>156</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -3465,7 +3617,7 @@
         <v>167</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3474,12 +3626,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3489,94 +3641,53 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -3586,89 +3697,8 @@
       <c r="A2" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3692,7 +3722,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -3700,10 +3730,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3716,7 +3746,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3726,18 +3756,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
-        <v>167</v>
+      <c r="A2" s="32" t="s">
+        <v>172</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -3762,13 +3792,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>8</v>
@@ -3779,13 +3809,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3810,10 +3840,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -3821,13 +3851,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3851,7 +3881,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -3859,10 +3889,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3889,16 +3919,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>8</v>
@@ -3906,19 +3936,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/vapsTechnosoft/IVRM/data/BGHS_AdmissionData.xlsx
+++ b/src/main/java/com/vapsTechnosoft/IVRM/data/BGHS_AdmissionData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="21" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="48" activeTab="48"/>
   </bookViews>
   <sheets>
     <sheet name="BGHS_AcademicYearData" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="181">
   <si>
     <t>AcademicYr</t>
   </si>
@@ -202,12 +202,6 @@
     <t>Source Discription</t>
   </si>
   <si>
-    <t>Susdiny Services Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Susdiny Service</t>
-  </si>
-  <si>
     <t>Section Name</t>
   </si>
   <si>
@@ -346,12 +340,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Hinduism Category</t>
-  </si>
-  <si>
-    <t>Susdiny Caste Category</t>
-  </si>
-  <si>
     <t>Caste Name</t>
   </si>
   <si>
@@ -418,9 +406,6 @@
     <t>StaffName</t>
   </si>
   <si>
-    <t>VidyaMS</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -433,9 +418,6 @@
     <t>Second StaffName</t>
   </si>
   <si>
-    <t>Arjun raj</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -604,17 +586,44 @@
     <t>2018-058</t>
   </si>
   <si>
-    <t>CC-541/161</t>
-  </si>
-  <si>
-    <t>Punjabi</t>
+    <t>Brahmin Hindu</t>
+  </si>
+  <si>
+    <t>Brahmin Category</t>
+  </si>
+  <si>
+    <t>New PN</t>
+  </si>
+  <si>
+    <t>SrujanaTamada</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>DineshTamada</t>
+  </si>
+  <si>
+    <t>CBSE</t>
+  </si>
+  <si>
+    <t>Central Board Of Secondary Education</t>
+  </si>
+  <si>
+    <t>New Paper</t>
+  </si>
+  <si>
+    <t>Print Media</t>
+  </si>
+  <si>
+    <t>2018-2019/1000/REG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,17 +751,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -797,6 +834,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -818,33 +861,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -853,22 +923,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -880,7 +941,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -892,30 +953,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -925,10 +984,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1282,10 +1338,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>10</v>
@@ -1311,10 +1367,10 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -1356,7 +1412,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -1364,7 +1420,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>20</v>
@@ -1396,25 +1452,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>8</v>
@@ -1422,26 +1478,26 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="H2" s="10" t="s">
         <v>20</v>
       </c>
@@ -1467,7 +1523,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -1475,7 +1531,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>20</v>
@@ -1491,7 +1547,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1505,7 +1561,90 @@
         <v>18</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>65</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -1513,12 +1652,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1528,67 +1667,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <row r="2" spans="1:3" ht="45">
+      <c r="A2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -1596,165 +1805,23 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45">
-      <c r="A2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1803,7 +1870,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1813,7 +1880,170 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -1821,170 +2051,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>20</v>
@@ -2012,13 +2079,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>8</v>
@@ -2026,15 +2093,91 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2044,22 +2187,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2069,27 +2212,27 @@
       <c r="A2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="B2" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2109,82 +2252,6 @@
       </c>
       <c r="B2" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>20</v>
@@ -2266,7 +2333,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2274,7 +2341,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>20</v>
@@ -2300,7 +2367,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2308,15 +2375,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
@@ -2345,13 +2412,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>8</v>
@@ -2359,13 +2426,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>20</v>
@@ -2392,7 +2459,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2400,7 +2467,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="23" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>20</v>
@@ -2416,7 +2483,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2424,7 +2491,7 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2435,10 +2502,10 @@
         <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>8</v>
@@ -2446,16 +2513,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>119</v>
+        <v>132</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>173</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>20</v>
@@ -2472,7 +2539,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2480,6 +2547,7 @@
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2490,10 +2558,10 @@
         <v>39</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>8</v>
@@ -2501,16 +2569,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>114</v>
+        <v>172</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>175</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>20</v>
@@ -2530,18 +2598,21 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
-        <v>119</v>
+      <c r="A2" s="38" t="s">
+        <v>175</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>20</v>
@@ -2557,7 +2628,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2568,21 +2639,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>114</v>
+      <c r="A2" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>175</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>20</v>
@@ -2618,13 +2689,13 @@
         <v>21</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>8</v>
@@ -2632,19 +2703,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="37" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>20</v>
@@ -2680,13 +2751,13 @@
         <v>21</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>8</v>
@@ -2694,19 +2765,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="37" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>20</v>
@@ -2788,7 +2859,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="32" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
@@ -2815,7 +2886,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2823,7 +2894,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
@@ -2853,7 +2924,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -2861,7 +2932,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
@@ -2891,7 +2962,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2899,7 +2970,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="25" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>20</v>
@@ -2925,7 +2996,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -2933,7 +3004,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
@@ -2963,16 +3034,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>8</v>
@@ -2980,16 +3051,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
@@ -3019,16 +3090,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>8</v>
@@ -3036,16 +3107,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="33" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
@@ -3071,7 +3142,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -3079,7 +3150,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="33" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
@@ -3107,10 +3178,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -3118,10 +3189,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="33" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>20</v>
@@ -3136,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3153,10 +3224,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>8</v>
@@ -3164,13 +3235,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>20</v>
@@ -3235,7 +3306,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3246,7 +3317,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="27" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>8</v>
@@ -3254,7 +3325,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="21" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
@@ -3287,13 +3358,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>8</v>
@@ -3301,16 +3372,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
@@ -3345,22 +3416,22 @@
         <v>18</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>8</v>
@@ -3368,25 +3439,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>115</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>20</v>
@@ -3419,22 +3490,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="27" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>8</v>
@@ -3442,22 +3513,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>20</v>
@@ -3484,7 +3555,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -3492,7 +3563,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="32" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>20</v>
@@ -3522,24 +3593,24 @@
         <v>18</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>115</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>20</v>
@@ -3566,10 +3637,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>156</v>
+        <v>130</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>8</v>
@@ -3577,10 +3648,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="32" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>20</v>
@@ -3606,7 +3677,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -3614,7 +3685,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="32" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>20</v>
@@ -3644,10 +3715,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>8</v>
@@ -3655,14 +3726,14 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
@@ -3687,7 +3758,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -3695,7 +3766,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="32" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
@@ -3756,7 +3827,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>8</v>
@@ -3764,7 +3835,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="32" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>20</v>
@@ -3792,13 +3863,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>8</v>
@@ -3850,11 +3921,11 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
+      <c r="A2" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -3888,8 +3959,8 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
+      <c r="A2" s="42" t="s">
+        <v>178</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>20</v>
@@ -3919,16 +3990,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>8</v>
@@ -3936,17 +4007,17 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
